--- a/Alarmas_Bombas.xlsx
+++ b/Alarmas_Bombas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\molin\Desktop\UOC\TFM\Python_Pandas_CodigoTFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE3E2B5E-455D-4FE6-B73F-69130CBA7D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FDD5E8-3C34-43C0-9E88-E275B615AFD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E7958801-DCB7-46F6-B5C6-0E97D93C691B}"/>
   </bookViews>
@@ -47,15 +47,6 @@
     <t>Short Text</t>
   </si>
   <si>
-    <t>1º Tractament</t>
-  </si>
-  <si>
-    <t>2º Tractament</t>
-  </si>
-  <si>
-    <t>3º Tractament2</t>
-  </si>
-  <si>
     <t>MediumPriorityAlarm</t>
   </si>
   <si>
@@ -609,6 +600,15 @@
   </si>
   <si>
     <t>TCI TAG NOT RECOGNISED</t>
+  </si>
+  <si>
+    <t>Tractament1</t>
+  </si>
+  <si>
+    <t>Tractament2</t>
+  </si>
+  <si>
+    <t>Tractament3</t>
   </si>
 </sst>
 </file>
@@ -711,9 +711,9 @@
     <tableColumn id="3" xr3:uid="{508BCEF8-338B-4820-BDCE-0DA275F9AD7A}" name="Class"/>
     <tableColumn id="4" xr3:uid="{DEF9DB35-38A1-46DD-9255-F9121108EF33}" name="Text"/>
     <tableColumn id="5" xr3:uid="{483B3DC6-6429-4FEB-B390-F8BD62F7E5AC}" name="Short Text"/>
-    <tableColumn id="8" xr3:uid="{7FDF9ADC-A9E3-4F41-A0C5-5C42BD9C8518}" name="1º Tractament" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{A2803D4E-CFBA-4A83-96DD-04D9BA0C8718}" name="2º Tractament" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{9C83A88B-938E-4CD4-A8D5-91881B2B6B3F}" name="3º Tractament2" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{7FDF9ADC-A9E3-4F41-A0C5-5C42BD9C8518}" name="Tractament1" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{A2803D4E-CFBA-4A83-96DD-04D9BA0C8718}" name="Tractament2" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{9C83A88B-938E-4CD4-A8D5-91881B2B6B3F}" name="Tractament3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A82AA9-858B-41E9-8AE1-7532FFF4E126}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,13 +1051,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1065,26 +1065,26 @@
         <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1093,26 +1093,26 @@
         <v>121</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1121,26 +1121,26 @@
         <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1149,26 +1149,26 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1177,26 +1177,26 @@
         <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1205,26 +1205,26 @@
         <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1233,19 +1233,19 @@
         <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G8" s="2">
@@ -1260,19 +1260,19 @@
         <v>257</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G9" s="2">
@@ -1287,103 +1287,103 @@
         <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G13" s="2">
@@ -1395,22 +1395,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G14" s="2">
@@ -1422,22 +1422,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G15" s="2">
@@ -1449,22 +1449,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G16" s="2">
@@ -1476,22 +1476,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G17" s="2">
@@ -1503,19 +1503,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -1524,28 +1524,28 @@
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G19" s="2">
@@ -1557,22 +1557,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G20" s="2">
@@ -1584,131 +1584,131 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -1717,56 +1717,56 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G27" s="4">
@@ -1778,302 +1778,302 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
       </c>
       <c r="H29" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
       </c>
       <c r="H31" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
       </c>
       <c r="H34" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
       </c>
       <c r="H35" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F37" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F38" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G38" s="4">
@@ -2085,22 +2085,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G39" s="4">
@@ -2112,75 +2112,75 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -2189,56 +2189,56 @@
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G44" s="4">
@@ -2250,22 +2250,22 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G45" s="4">
@@ -2277,274 +2277,274 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F46" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F47" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G47" s="4">
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
       </c>
       <c r="H48" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F49" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
       </c>
       <c r="H49" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F50" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
       </c>
       <c r="H50" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F51" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
       </c>
       <c r="H51" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F52" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
       </c>
       <c r="H52" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
       </c>
       <c r="H53" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F54" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G54" s="4">
         <v>0</v>
       </c>
       <c r="H54" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G55" s="4">
@@ -2556,50 +2556,50 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
       </c>
       <c r="H56" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F57" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G57" s="4">
@@ -2611,187 +2611,187 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F58" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
       </c>
       <c r="H58" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F59" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
       </c>
       <c r="H59" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F60" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
       </c>
       <c r="H60" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F61" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G61" s="4">
         <v>0</v>
       </c>
       <c r="H61" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F62" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
       </c>
       <c r="H62" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F63" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G63" s="4">
         <v>0</v>
       </c>
       <c r="H63" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
@@ -2800,56 +2800,56 @@
         <v>0</v>
       </c>
       <c r="H64" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E65" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F65" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
       </c>
       <c r="H65" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G66" s="4">
@@ -2861,19 +2861,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E67" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F67" s="2">
         <v>0</v>
@@ -2882,28 +2882,28 @@
         <v>0</v>
       </c>
       <c r="H67" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F68" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G68" s="4">
@@ -2915,134 +2915,134 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F69" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G69" s="4">
         <v>0</v>
       </c>
       <c r="H69" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F70" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
       </c>
       <c r="H70" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F71" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
       </c>
       <c r="H71" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E72" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F72" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G72" s="4">
         <v>0</v>
       </c>
       <c r="H72" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F73" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G73" s="4">
@@ -3054,106 +3054,106 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F74" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G74" s="4">
         <v>0</v>
       </c>
       <c r="H74" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E75" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F75" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
       </c>
       <c r="H75" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E76" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F76" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G76" s="4">
         <v>0</v>
       </c>
       <c r="H76" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F77" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G77" s="4">
@@ -3165,50 +3165,50 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F78" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G78" s="4">
         <v>0</v>
       </c>
       <c r="H78" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F79" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G79" s="4">
@@ -3220,134 +3220,134 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F80" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G80" s="4">
         <v>0</v>
       </c>
       <c r="H80" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E81" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F81" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G81" s="4">
         <v>0</v>
       </c>
       <c r="H81" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F82" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G82" s="4">
         <v>0</v>
       </c>
       <c r="H82" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F83" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G83" s="4">
         <v>0</v>
       </c>
       <c r="H83" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F84" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G84" s="4">
@@ -3359,22 +3359,22 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F85" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G85" s="4">
@@ -3386,22 +3386,22 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E86" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F86" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G86" s="4">
@@ -3413,22 +3413,22 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F87" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G87" s="4">
@@ -3440,22 +3440,22 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F88" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G88" s="4">
@@ -3467,19 +3467,19 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
@@ -3488,28 +3488,28 @@
         <v>0</v>
       </c>
       <c r="H89" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F90" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G90" s="4">
@@ -3521,22 +3521,22 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F91" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G91" s="4">
@@ -3548,131 +3548,131 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F92" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G92" s="4">
         <v>0</v>
       </c>
       <c r="H92" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E93" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G93" s="4">
         <v>0</v>
       </c>
       <c r="H93" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E94" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F94" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G94" s="4">
         <v>0</v>
       </c>
       <c r="H94" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E95" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G95" s="4">
         <v>0</v>
       </c>
       <c r="H95" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E96" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F96" s="2">
         <v>1</v>
@@ -3681,84 +3681,84 @@
         <v>0</v>
       </c>
       <c r="H96" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G97" s="4">
         <v>0</v>
       </c>
       <c r="H97" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E98" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G98" s="4">
         <v>0</v>
       </c>
       <c r="H98" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E99" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G99" s="4">
@@ -3770,57 +3770,57 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E100" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G100" s="4">
         <v>0</v>
       </c>
       <c r="H100" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E101" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F101" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G101" s="2">
         <v>0</v>
       </c>
       <c r="H101" s="2">
-        <f>Table1[[#This Row],[2º Tractament]]</f>
+        <f>Table1[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
